--- a/resources/note.xlsx
+++ b/resources/note.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\Overlay\悬浮窗练习生\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Overlay\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670670BF-1814-4069-B76C-121A23CF611F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FCE33B-1EAF-42F7-AEFE-27B4B8DF3398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17925" yWindow="3525" windowWidth="27645" windowHeight="12540" activeTab="4" xr2:uid="{2761565A-A921-498C-86BF-4776277EE652}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="18045" windowHeight="11835" activeTab="4" xr2:uid="{2761565A-A921-498C-86BF-4776277EE652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Style" sheetId="4" r:id="rId3"/>
     <sheet name="JS" sheetId="5" r:id="rId4"/>
-    <sheet name="事件" sheetId="6" r:id="rId5"/>
+    <sheet name="JQ" sheetId="7" r:id="rId5"/>
+    <sheet name="事件" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="891">
   <si>
     <t>ID</t>
   </si>
@@ -2437,9 +2438,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>onForceReload</t>
-  </si>
-  <si>
     <t>onImportLogEvent</t>
   </si>
   <si>
@@ -2456,21 +2454,12 @@
   </si>
   <si>
     <t>onPartyWipe</t>
-  </si>
-  <si>
-    <t>onPlayerChangedEvent</t>
-  </si>
-  <si>
-    <t>区域变化</t>
   </si>
   <si>
     <t>onInCombatChangedEvent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>导入日志行</t>
-  </si>
-  <si>
     <t>战斗改变</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2479,9 +2468,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日志事件</t>
-  </si>
-  <si>
     <t>onGameActiveChangedEvent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2518,9 +2504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前玩家变更</t>
-  </si>
-  <si>
     <t>Cactbot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2529,16 +2512,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CombatData</t>
   </si>
   <si>
-    <t>战斗数据</t>
-  </si>
-  <si>
     <t>LogLine</t>
   </si>
   <si>
@@ -2546,16 +2522,6 @@
   </si>
   <si>
     <t>rawLine</t>
-  </si>
-  <si>
-    <t>Array(String 数据1, String 数据2, ...) 包含一个分割处理过的日志行数据数组。</t>
-  </si>
-  <si>
-    <t>String 日志行 包含未经处理的日志行字符串，采用网络日志行格式。</t>
-  </si>
-  <si>
-    <t>日志行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OverlayPlugin</t>
@@ -2575,15 +2541,9 @@
     <t>ChangeZone</t>
   </si>
   <si>
-    <t>区域变更</t>
-  </si>
-  <si>
     <t>zoneID</t>
   </si>
   <si>
-    <t>Int 区域ID 新区域的ID。</t>
-  </si>
-  <si>
     <t>ChangePrimaryPlayer</t>
   </si>
   <si>
@@ -2591,21 +2551,12 @@
   </si>
   <si>
     <t>charName</t>
-  </si>
-  <si>
-    <t>String 角色ID 玩家的实体ID</t>
-  </si>
-  <si>
-    <t>String 角色名 玩家的角色名字</t>
   </si>
   <si>
     <t>OnlineStatusChanged</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在线状态变更</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
@@ -2615,21 +2566,9 @@
     <t>status</t>
   </si>
   <si>
-    <t>String 目标 状态变更所属目标的实体ID</t>
-  </si>
-  <si>
-    <t>Int 原始状态代码 状态代码(例如12)</t>
-  </si>
-  <si>
-    <t>String 状态文本 状态的描述字符串。可能的值为: Online, Busy, InCutscene, AFK, LookingToMeld, RP, LookingForParty</t>
-  </si>
-  <si>
     <t>PartyChanged</t>
   </si>
   <si>
-    <t>小队变更</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -2645,33 +2584,1109 @@
     <t>inParty</t>
   </si>
   <si>
-    <t>String 实体ID 实体ID</t>
-  </si>
-  <si>
-    <t>String 角色名 角色名</t>
-  </si>
-  <si>
-    <t>Int 世界ID 原始世界ID</t>
-  </si>
-  <si>
-    <t>Int 职业ID 职业ID</t>
-  </si>
-  <si>
-    <t>Bool true 如果这个角色在玩家的队伍中的话肯定为True（</t>
-  </si>
-  <si>
-    <t>该事件只有一个字段 party ，Array(Array 小队成员1, Array 小队成员2, ...) 其中包含小队成员名单。</t>
+    <t>OverlayPlugin</t>
+  </si>
+  <si>
+    <t>BroadcastMessage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Array(String 日志行) 一个包含每个日志行字符串的数组。</t>
+    <t>FileChanged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnmityTargetData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnmityAggroList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSendSaveData</t>
+  </si>
+  <si>
+    <t>日志事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前玩家变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onForceReload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onInitializeOverlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onDataFilesRead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF032F62"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺少订阅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读取</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据统计</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Array(String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1, String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2, ...) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含一个分割处理过的日志行数据数组。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含未经处理的日志行字符串，采用网络日志行格式。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入日志行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Array(String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个包含每个日志行字符串的数组。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域变更</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新区域的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前玩家变更</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家的实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家的角色名字</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件改变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在线状态变更</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态变更所属目标的实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原始状态代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态的描述字符串。可能的值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: Online, Busy, InCutscene, AFK, LookingToMeld, RP, LookingForParty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小队变更</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该事件只有一个字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> party </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Array(Array </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小队成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1, Array </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小队成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2, ...) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中包含小队成员名单。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原始世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bool true </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果这个角色在玩家的队伍中的话肯定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人目标</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敌人仇恨列表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onPlayerChangedEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>("#id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>attr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内嵌属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>("#id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>porp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>("#id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>val</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2701,6 +3716,91 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF795E26"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2719,12 +3819,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2734,24 +3837,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7549,7 +8677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230D6426-B81D-4515-9FBB-90FA28DA58D0}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7567,15 +8697,59 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CCE475-7706-4C10-BA5F-635B38645946}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A02A32F-9C0A-4B89-B47A-193772FB4D80}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="B2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="B3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CCE475-7706-4C10-BA5F-635B38645946}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7588,374 +8762,504 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B16" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B18" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B20" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B21" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B22" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B25" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B28" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C28" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="E29" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E30" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E31" s="9" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E32" s="9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="9" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="E33" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C35" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>867</v>
-      </c>
+      <c r="C36" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="14">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/note.xlsx
+++ b/resources/note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Overlay\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FCE33B-1EAF-42F7-AEFE-27B4B8DF3398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE067437-75E9-4F64-AFD4-91CD808BB482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="18045" windowHeight="11835" activeTab="4" xr2:uid="{2761565A-A921-498C-86BF-4776277EE652}"/>
+    <workbookView xWindow="18075" yWindow="2055" windowWidth="18045" windowHeight="11835" activeTab="4" xr2:uid="{2761565A-A921-498C-86BF-4776277EE652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="892">
   <si>
     <t>ID</t>
   </si>
@@ -3680,6 +3680,9 @@
   <si>
     <t>value的值</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMContentLoaded</t>
   </si>
 </sst>
 </file>
@@ -3827,7 +3830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3864,8 +3867,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3873,7 +3876,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8715,7 +8721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>885</v>
       </c>
       <c r="B1" t="s">
@@ -8723,7 +8729,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>887</v>
       </c>
       <c r="B2" t="s">
@@ -8731,7 +8737,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>889</v>
       </c>
       <c r="B3" t="s">
@@ -8749,7 +8755,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8958,7 +8964,7 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -8971,7 +8977,7 @@
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="9" t="s">
         <v>820</v>
       </c>
@@ -8982,7 +8988,7 @@
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -8999,7 +9005,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="9" t="s">
@@ -9044,7 +9050,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -9061,7 +9067,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="9" t="s">
@@ -9085,7 +9091,7 @@
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -9102,7 +9108,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="9" t="s">
@@ -9113,7 +9119,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="9" t="s">
@@ -9124,7 +9130,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -9139,7 +9145,7 @@
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="9" t="s">
@@ -9150,7 +9156,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="9" t="s">
@@ -9161,7 +9167,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="9" t="s">
@@ -9172,7 +9178,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="9" t="s">
@@ -9183,7 +9189,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="9" t="s">
@@ -9232,7 +9238,9 @@
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="16" t="s">
+        <v>891</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -9246,6 +9254,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A25:A27"/>
@@ -9253,13 +9268,6 @@
     <mergeCell ref="C28:C33"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
